--- a/Code/Results/Cases/Case_4_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_151/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8584601664050808</v>
+        <v>2.069470653386531</v>
       </c>
       <c r="C2">
-        <v>0.4743438481903866</v>
+        <v>0.3272125592648933</v>
       </c>
       <c r="D2">
-        <v>0.2135349150146766</v>
+        <v>0.4266091036242301</v>
       </c>
       <c r="E2">
-        <v>0.03196322142611763</v>
+        <v>0.0979140848567166</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0009077187687498473</v>
+        <v>0.002780751438396815</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.46052783176395</v>
+        <v>7.514640091274885</v>
       </c>
       <c r="J2">
-        <v>0.008981776132634067</v>
+        <v>0.0175102146074515</v>
       </c>
       <c r="K2">
-        <v>1.330462986519052</v>
+        <v>2.209229506676394</v>
       </c>
       <c r="L2">
-        <v>0.4938072070862916</v>
+        <v>0.7896261971728933</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7894609615359798</v>
+        <v>2.086538149327737</v>
       </c>
       <c r="C3">
-        <v>0.4190090647875024</v>
+        <v>0.31231315140937</v>
       </c>
       <c r="D3">
-        <v>0.2007292763319555</v>
+        <v>0.4262126714017995</v>
       </c>
       <c r="E3">
-        <v>0.03164814883951372</v>
+        <v>0.0984822537047485</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0009187665397920714</v>
+        <v>0.002786916253477199</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.422960427380218</v>
+        <v>7.19176191821245</v>
       </c>
       <c r="J3">
-        <v>0.008418332799418948</v>
+        <v>0.01734632550713933</v>
       </c>
       <c r="K3">
-        <v>1.204848428468665</v>
+        <v>2.205400534163147</v>
       </c>
       <c r="L3">
-        <v>0.4573128849297348</v>
+        <v>0.7841197543353076</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7506974659052617</v>
+        <v>2.098831280073483</v>
       </c>
       <c r="C4">
-        <v>0.385727391119957</v>
+        <v>0.3032729273091661</v>
       </c>
       <c r="D4">
-        <v>0.1932504254412066</v>
+        <v>0.4261624429240385</v>
       </c>
       <c r="E4">
-        <v>0.03150582616529185</v>
+        <v>0.0988680331770162</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009256945618899743</v>
+        <v>0.002790893376900816</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.795682182354255</v>
+        <v>6.992706704277481</v>
       </c>
       <c r="J4">
-        <v>0.00807762794034339</v>
+        <v>0.01724553621234293</v>
       </c>
       <c r="K4">
-        <v>1.131631073352509</v>
+        <v>2.204743041027626</v>
       </c>
       <c r="L4">
-        <v>0.4356893557388446</v>
+        <v>0.7810569395991962</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7357268250756022</v>
+        <v>2.104296213809477</v>
       </c>
       <c r="C5">
-        <v>0.3723159330940291</v>
+        <v>0.2996158499446153</v>
       </c>
       <c r="D5">
-        <v>0.1902915436005514</v>
+        <v>0.4261905493341516</v>
       </c>
       <c r="E5">
-        <v>0.03146010665152055</v>
+        <v>0.09903453983464239</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009285570723190714</v>
+        <v>0.002792562526061434</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.542092269977388</v>
+        <v>6.91137856251018</v>
       </c>
       <c r="J5">
-        <v>0.007939880902542384</v>
+        <v>0.01720441991148824</v>
       </c>
       <c r="K5">
-        <v>1.102682879371315</v>
+        <v>2.204900161102529</v>
       </c>
       <c r="L5">
-        <v>0.4270562292740436</v>
+        <v>0.7798887400899162</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7332886539433616</v>
+        <v>2.105231146951667</v>
       </c>
       <c r="C6">
-        <v>0.3700974535441617</v>
+        <v>0.2990102106620043</v>
       </c>
       <c r="D6">
-        <v>0.1898053761288452</v>
+        <v>0.4261981501801841</v>
       </c>
       <c r="E6">
-        <v>0.03145324067600619</v>
+        <v>0.09906275016022725</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000929034842860691</v>
+        <v>0.002792842618014947</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.500094697471951</v>
+        <v>6.897861059412037</v>
       </c>
       <c r="J6">
-        <v>0.007917067884299911</v>
+        <v>0.01719758983382924</v>
       </c>
       <c r="K6">
-        <v>1.09792712366206</v>
+        <v>2.204951900381587</v>
       </c>
       <c r="L6">
-        <v>0.4256329864071091</v>
+        <v>0.7796995862890981</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7504923227373581</v>
+        <v>2.098903139153322</v>
       </c>
       <c r="C7">
-        <v>0.3855459370807353</v>
+        <v>0.3032234981905333</v>
       </c>
       <c r="D7">
-        <v>0.1932101709837752</v>
+        <v>0.4261626252995825</v>
       </c>
       <c r="E7">
-        <v>0.03150516058603969</v>
+        <v>0.09887024107644216</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009257330041451884</v>
+        <v>0.002790915691351383</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.792254496575993</v>
+        <v>6.991610752394166</v>
       </c>
       <c r="J7">
-        <v>0.008075766095107184</v>
+        <v>0.01724498188537815</v>
       </c>
       <c r="K7">
-        <v>1.131237188864532</v>
+        <v>2.204743440033013</v>
       </c>
       <c r="L7">
-        <v>0.4355722262754682</v>
+        <v>0.7810408613517552</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8338706887669503</v>
+        <v>2.074978696238759</v>
       </c>
       <c r="C8">
-        <v>0.4551054924980917</v>
+        <v>0.3220526329590143</v>
       </c>
       <c r="D8">
-        <v>0.2090349669857829</v>
+        <v>0.4264323153158358</v>
       </c>
       <c r="E8">
-        <v>0.03184360364316774</v>
+        <v>0.0981023348023129</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0009114998613863432</v>
+        <v>0.002782837348241779</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.10046891848972</v>
+        <v>7.40347379690516</v>
       </c>
       <c r="J8">
-        <v>0.008786266594313474</v>
+        <v>0.01745373688406104</v>
       </c>
       <c r="K8">
-        <v>1.286279193685004</v>
+        <v>2.207557292670685</v>
       </c>
       <c r="L8">
-        <v>0.4810494623994828</v>
+        <v>0.7876614861671669</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.030075889294125</v>
+        <v>2.0424866797959</v>
       </c>
       <c r="C9">
-        <v>0.5982166441829975</v>
+        <v>0.3598492706915124</v>
       </c>
       <c r="D9">
-        <v>0.2435076804375029</v>
+        <v>0.4284947842383673</v>
       </c>
       <c r="E9">
-        <v>0.03294272084898608</v>
+        <v>0.09688883847623408</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008845883478756775</v>
+        <v>0.002768509982859081</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.76557893007828</v>
+        <v>8.205164282196591</v>
       </c>
       <c r="J9">
-        <v>0.01023286034227411</v>
+        <v>0.01786200404452387</v>
       </c>
       <c r="K9">
-        <v>1.626215912599577</v>
+        <v>2.22655410385866</v>
       </c>
       <c r="L9">
-        <v>0.5773997413165546</v>
+        <v>0.8031744657650535</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.200843082664903</v>
+        <v>2.027459335307384</v>
       </c>
       <c r="C10">
-        <v>0.7093714675876583</v>
+        <v>0.3881748924264343</v>
       </c>
       <c r="D10">
-        <v>0.2715666631835774</v>
+        <v>0.4309471001124194</v>
       </c>
       <c r="E10">
-        <v>0.03406359442685414</v>
+        <v>0.09617477294077048</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008651890832471775</v>
+        <v>0.002758894959564992</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.81971977639637</v>
+        <v>8.791174977385168</v>
       </c>
       <c r="J10">
-        <v>0.01134687759346242</v>
+        <v>0.01816155718547918</v>
       </c>
       <c r="K10">
-        <v>1.905735355181889</v>
+        <v>2.248794226190398</v>
       </c>
       <c r="L10">
-        <v>0.6540826509895226</v>
+        <v>0.8161243017707278</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.286129326265495</v>
+        <v>2.022555518317745</v>
       </c>
       <c r="C11">
-        <v>0.76175940590295</v>
+        <v>0.4011873292006953</v>
       </c>
       <c r="D11">
-        <v>0.2850950958997629</v>
+        <v>0.4322667582967199</v>
       </c>
       <c r="E11">
-        <v>0.03465446576279163</v>
+        <v>0.09588831865930558</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008563815593967128</v>
+        <v>0.002754716177253932</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.78451241141425</v>
+        <v>9.057261890142001</v>
       </c>
       <c r="J11">
-        <v>0.0118698158659285</v>
+        <v>0.01829780528586689</v>
       </c>
       <c r="K11">
-        <v>2.041498217678878</v>
+        <v>2.260725845898833</v>
       </c>
       <c r="L11">
-        <v>0.6906564833103914</v>
+        <v>0.8223550749440847</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.319703227422139</v>
+        <v>2.020977410336229</v>
       </c>
       <c r="C12">
-        <v>0.7819109694146675</v>
+        <v>0.4061334560033174</v>
       </c>
       <c r="D12">
-        <v>0.2903449233424311</v>
+        <v>0.4327958632580788</v>
       </c>
       <c r="E12">
-        <v>0.03489115551592725</v>
+        <v>0.09578535285806566</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008530425703172588</v>
+        <v>0.002753161647050929</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.15516111058497</v>
+        <v>9.157962123151037</v>
       </c>
       <c r="J12">
-        <v>0.01207066633068976</v>
+        <v>0.01834940038922994</v>
       </c>
       <c r="K12">
-        <v>2.094362021290891</v>
+        <v>2.265506154814375</v>
       </c>
       <c r="L12">
-        <v>0.7047899933673563</v>
+        <v>0.8247635415782071</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.312412360379852</v>
+        <v>2.021304865142383</v>
       </c>
       <c r="C13">
-        <v>0.7775561232544987</v>
+        <v>0.405067386365431</v>
       </c>
       <c r="D13">
-        <v>0.2892083333491513</v>
+        <v>0.4326806038564115</v>
       </c>
       <c r="E13">
-        <v>0.03483958166239987</v>
+        <v>0.0958072835682735</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008537619599993117</v>
+        <v>0.002753495205632103</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.07508282864336</v>
+        <v>9.136277087986684</v>
       </c>
       <c r="J13">
-        <v>0.01202727505905266</v>
+        <v>0.01833828835915519</v>
       </c>
       <c r="K13">
-        <v>2.082908376272314</v>
+        <v>2.264464955741488</v>
       </c>
       <c r="L13">
-        <v>0.7017327451880959</v>
+        <v>0.8242426532167855</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.288864686789594</v>
+        <v>2.02242009169197</v>
       </c>
       <c r="C14">
-        <v>0.763410682331795</v>
+        <v>0.401593875285414</v>
       </c>
       <c r="D14">
-        <v>0.2855243514157308</v>
+        <v>0.4323096990860194</v>
       </c>
       <c r="E14">
-        <v>0.0346736708419968</v>
+        <v>0.09587973726627119</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008561069735593842</v>
+        <v>0.002754587727529793</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.81489370173006</v>
+        <v>9.065547727525768</v>
       </c>
       <c r="J14">
-        <v>0.01188628016669213</v>
+        <v>0.01830205000586282</v>
       </c>
       <c r="K14">
-        <v>2.04581685758572</v>
+        <v>2.261113865946612</v>
       </c>
       <c r="L14">
-        <v>0.6918133104338295</v>
+        <v>0.8225522379116654</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.274613505262579</v>
+        <v>2.0231395468345</v>
       </c>
       <c r="C15">
-        <v>0.7547886696222008</v>
+        <v>0.3994686819177389</v>
       </c>
       <c r="D15">
-        <v>0.2832848858652568</v>
+        <v>0.4320863362218432</v>
       </c>
       <c r="E15">
-        <v>0.03457377294253838</v>
+        <v>0.09592483427756804</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008575426677981629</v>
+        <v>0.0027552605544882</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.65624138752378</v>
+        <v>9.022216284344438</v>
       </c>
       <c r="J15">
-        <v>0.01180030092268858</v>
+        <v>0.01827985319954806</v>
       </c>
       <c r="K15">
-        <v>2.023293539229485</v>
+        <v>2.25909538975651</v>
       </c>
       <c r="L15">
-        <v>0.6857756527832066</v>
+        <v>0.8215231963509666</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.195437473597991</v>
+        <v>2.02781877778213</v>
       </c>
       <c r="C16">
-        <v>0.7059886686652987</v>
+        <v>0.3873270830254967</v>
       </c>
       <c r="D16">
-        <v>0.270699317869088</v>
+        <v>0.4308649667206339</v>
       </c>
       <c r="E16">
-        <v>0.03402671497937071</v>
+        <v>0.09619426475720694</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008657645118304597</v>
+        <v>0.002759171964417904</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.75735585079195</v>
+        <v>8.773776489956305</v>
       </c>
       <c r="J16">
-        <v>0.01131306856968628</v>
+        <v>0.01815265296928992</v>
       </c>
       <c r="K16">
-        <v>1.897053742282338</v>
+        <v>2.248051075517338</v>
       </c>
       <c r="L16">
-        <v>0.6517298106441416</v>
+        <v>0.8157239561884637</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.14893444846777</v>
+        <v>2.031184925371008</v>
       </c>
       <c r="C17">
-        <v>0.6765522850101888</v>
+        <v>0.3799113655887822</v>
       </c>
       <c r="D17">
-        <v>0.2631854733834729</v>
+        <v>0.4301679890646994</v>
       </c>
       <c r="E17">
-        <v>0.03371270958015593</v>
+        <v>0.09636937352175146</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008708086346340977</v>
+        <v>0.002761621341661382</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.21431399168819</v>
+        <v>8.621247476256656</v>
       </c>
       <c r="J17">
-        <v>0.01101863875053333</v>
+        <v>0.01807461727780435</v>
       </c>
       <c r="K17">
-        <v>1.821956568470739</v>
+        <v>2.241741278069355</v>
       </c>
       <c r="L17">
-        <v>0.6313036803313992</v>
+        <v>0.8122534462489597</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.122890055140857</v>
+        <v>2.033302849087079</v>
       </c>
       <c r="C18">
-        <v>0.6597893367883785</v>
+        <v>0.3756579711050847</v>
       </c>
       <c r="D18">
-        <v>0.2589344777283031</v>
+        <v>0.4297863135200402</v>
       </c>
       <c r="E18">
-        <v>0.03353963528035209</v>
+        <v>0.0964737043448487</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008737119372731186</v>
+        <v>0.002763048536617004</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.90476344967092</v>
+        <v>8.533469896174296</v>
       </c>
       <c r="J18">
-        <v>0.01085077779094767</v>
+        <v>0.01802973108609152</v>
       </c>
       <c r="K18">
-        <v>1.779558028633232</v>
+        <v>2.238282765648592</v>
       </c>
       <c r="L18">
-        <v>0.6197114249933122</v>
+        <v>0.8102892780029123</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.114187484980221</v>
+        <v>2.034051136510271</v>
       </c>
       <c r="C19">
-        <v>0.6541411299567983</v>
+        <v>0.3742198835478519</v>
       </c>
       <c r="D19">
-        <v>0.2575068444085389</v>
+        <v>0.4296603827536956</v>
       </c>
       <c r="E19">
-        <v>0.03348229309409234</v>
+        <v>0.09650964981133292</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008746954738363408</v>
+        <v>0.002763534922024036</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.80040844886366</v>
+        <v>8.503741563776828</v>
       </c>
       <c r="J19">
-        <v>0.01079418445893587</v>
+        <v>0.0180145329134298</v>
       </c>
       <c r="K19">
-        <v>1.765333234198607</v>
+        <v>2.2371410592431</v>
       </c>
       <c r="L19">
-        <v>0.6158121986579062</v>
+        <v>0.8096297323362762</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.153810790501609</v>
+        <v>2.030807769910012</v>
       </c>
       <c r="C20">
-        <v>0.6796680977555809</v>
+        <v>0.3806995442076868</v>
       </c>
       <c r="D20">
-        <v>0.2639778962643504</v>
+        <v>0.430240195398838</v>
       </c>
       <c r="E20">
-        <v>0.03374534761993075</v>
+        <v>0.09635035905115252</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008702715081188722</v>
+        <v>0.002761358700515341</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.27182636874241</v>
+        <v>8.637489237123702</v>
       </c>
       <c r="J20">
-        <v>0.01104982401475496</v>
+        <v>0.01808292450309423</v>
       </c>
       <c r="K20">
-        <v>1.829867028310957</v>
+        <v>2.24239529015469</v>
       </c>
       <c r="L20">
-        <v>0.6334616248695824</v>
+        <v>0.8126195774318319</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.295744894315249</v>
+        <v>2.022084946139472</v>
       </c>
       <c r="C21">
-        <v>0.7675565849732209</v>
+        <v>0.4026136221453669</v>
       </c>
       <c r="D21">
-        <v>0.2866028323292085</v>
+        <v>0.4324178451995522</v>
       </c>
       <c r="E21">
-        <v>0.03472204028277126</v>
+        <v>0.09585830644883941</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000855418343700288</v>
+        <v>0.002754266071919606</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.89116539298624</v>
+        <v>9.086324235616416</v>
       </c>
       <c r="J21">
-        <v>0.01192761270233689</v>
+        <v>0.01831269403376901</v>
       </c>
       <c r="K21">
-        <v>2.056670186031141</v>
+        <v>2.262091040594981</v>
       </c>
       <c r="L21">
-        <v>0.6947188282944552</v>
+        <v>0.8230474226339055</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.396066231277246</v>
+        <v>2.018009990477907</v>
       </c>
       <c r="C22">
-        <v>0.8268537885609248</v>
+        <v>0.4170443147633875</v>
       </c>
       <c r="D22">
-        <v>0.3021393058180166</v>
+        <v>0.4340123260253819</v>
       </c>
       <c r="E22">
-        <v>0.03543655605792928</v>
+        <v>0.09556882317293258</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008456852621429602</v>
+        <v>0.002749793075084384</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.98095933736863</v>
+        <v>9.379312290494397</v>
       </c>
       <c r="J22">
-        <v>0.0125180622367953</v>
+        <v>0.01846286878374137</v>
       </c>
       <c r="K22">
-        <v>2.213499443365322</v>
+        <v>2.276491419780001</v>
       </c>
       <c r="L22">
-        <v>0.7364322367231324</v>
+        <v>0.8301483499723048</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.341761226207524</v>
+        <v>2.020035754741656</v>
       </c>
       <c r="C23">
-        <v>0.7950165775309017</v>
+        <v>0.4093323328936833</v>
       </c>
       <c r="D23">
-        <v>0.2937721962577484</v>
+        <v>0.4331456398647049</v>
       </c>
       <c r="E23">
-        <v>0.03504774650173204</v>
+        <v>0.09572039190106807</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008508846928465694</v>
+        <v>0.002752165592273164</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.39608472594983</v>
+        <v>9.22296797773447</v>
       </c>
       <c r="J23">
-        <v>0.01220120587958995</v>
+        <v>0.01838271577487482</v>
       </c>
       <c r="K23">
-        <v>2.128928257707543</v>
+        <v>2.268665459045735</v>
       </c>
       <c r="L23">
-        <v>0.7140001290301115</v>
+        <v>0.8263322585784323</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.151604058031438</v>
+        <v>2.030977712961288</v>
       </c>
       <c r="C24">
-        <v>0.6782589428883341</v>
+        <v>0.3803431775309889</v>
       </c>
       <c r="D24">
-        <v>0.2636194287858586</v>
+        <v>0.4302074916547554</v>
       </c>
       <c r="E24">
-        <v>0.03373056884704084</v>
+        <v>0.09635894409727719</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008705143321509577</v>
+        <v>0.002761477381173293</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.24581683313122</v>
+        <v>8.630146607562295</v>
       </c>
       <c r="J24">
-        <v>0.01103572079923687</v>
+        <v>0.01807916887678829</v>
       </c>
       <c r="K24">
-        <v>1.826288308665113</v>
+        <v>2.242099084748531</v>
       </c>
       <c r="L24">
-        <v>0.6324855507967868</v>
+        <v>0.8124539527453862</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9728663292470685</v>
+        <v>2.049727283653027</v>
       </c>
       <c r="C25">
-        <v>0.5586007589961639</v>
+        <v>0.3495283518093402</v>
       </c>
       <c r="D25">
-        <v>0.2337533794741802</v>
+        <v>0.4277724446852886</v>
       </c>
       <c r="E25">
-        <v>0.03259422733040118</v>
+        <v>0.09718589989739534</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008917841399914801</v>
+        <v>0.002772225029016588</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.03056692471219</v>
+        <v>7.988858500744101</v>
       </c>
       <c r="J25">
-        <v>0.009834036019109149</v>
+        <v>0.01775164706383414</v>
       </c>
       <c r="K25">
-        <v>1.529665802302475</v>
+        <v>2.219965269655688</v>
       </c>
       <c r="L25">
-        <v>0.5504222588483998</v>
+        <v>0.7987059254557067</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_151/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.069470653386531</v>
+        <v>0.8584601664050524</v>
       </c>
       <c r="C2">
-        <v>0.3272125592648933</v>
+        <v>0.4743438481897044</v>
       </c>
       <c r="D2">
-        <v>0.4266091036242301</v>
+        <v>0.2135349150152734</v>
       </c>
       <c r="E2">
-        <v>0.0979140848567166</v>
+        <v>0.03196322142603947</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002780751438396815</v>
+        <v>0.0009077187686980077</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.514640091274885</v>
+        <v>10.46052783176421</v>
       </c>
       <c r="J2">
-        <v>0.0175102146074515</v>
+        <v>0.008981776132513275</v>
       </c>
       <c r="K2">
-        <v>2.209229506676394</v>
+        <v>1.330462986519166</v>
       </c>
       <c r="L2">
-        <v>0.7896261971728933</v>
+        <v>0.4938072070864479</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.086538149327737</v>
+        <v>0.789460961535525</v>
       </c>
       <c r="C3">
-        <v>0.31231315140937</v>
+        <v>0.4190090647869624</v>
       </c>
       <c r="D3">
-        <v>0.4262126714017995</v>
+        <v>0.2007292763320692</v>
       </c>
       <c r="E3">
-        <v>0.0984822537047485</v>
+        <v>0.03164814883947287</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002786916253477199</v>
+        <v>0.0009187665396536936</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7.19176191821245</v>
+        <v>9.422960427380275</v>
       </c>
       <c r="J3">
-        <v>0.01734632550713933</v>
+        <v>0.008418332799166706</v>
       </c>
       <c r="K3">
-        <v>2.205400534163147</v>
+        <v>1.20484842846875</v>
       </c>
       <c r="L3">
-        <v>0.7841197543353076</v>
+        <v>0.4573128849298911</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.098831280073483</v>
+        <v>0.7506974659046932</v>
       </c>
       <c r="C4">
-        <v>0.3032729273091661</v>
+        <v>0.3857273911185359</v>
       </c>
       <c r="D4">
-        <v>0.4261624429240385</v>
+        <v>0.1932504254407945</v>
       </c>
       <c r="E4">
-        <v>0.0988680331770162</v>
+        <v>0.03150582616519415</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002790893376900816</v>
+        <v>0.0009256945617814135</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.992706704277481</v>
+        <v>8.795682182354227</v>
       </c>
       <c r="J4">
-        <v>0.01724553621234293</v>
+        <v>0.008077627940380694</v>
       </c>
       <c r="K4">
-        <v>2.204743041027626</v>
+        <v>1.131631073352423</v>
       </c>
       <c r="L4">
-        <v>0.7810569395991962</v>
+        <v>0.4356893557390151</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.104296213809477</v>
+        <v>0.7357268250753748</v>
       </c>
       <c r="C5">
-        <v>0.2996158499446153</v>
+        <v>0.3723159330935175</v>
       </c>
       <c r="D5">
-        <v>0.4261905493341516</v>
+        <v>0.1902915436010488</v>
       </c>
       <c r="E5">
-        <v>0.09903453983464239</v>
+        <v>0.03146010665158272</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002792562526061434</v>
+        <v>0.0009285570723193468</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.91137856251018</v>
+        <v>8.542092269977303</v>
       </c>
       <c r="J5">
-        <v>0.01720441991148824</v>
+        <v>0.007939880902414487</v>
       </c>
       <c r="K5">
-        <v>2.204900161102529</v>
+        <v>1.102682879371315</v>
       </c>
       <c r="L5">
-        <v>0.7798887400899162</v>
+        <v>0.4270562292739157</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.105231146951667</v>
+        <v>0.733288653943589</v>
       </c>
       <c r="C6">
-        <v>0.2990102106620043</v>
+        <v>0.3700974535441333</v>
       </c>
       <c r="D6">
-        <v>0.4261981501801841</v>
+        <v>0.1898053761290583</v>
       </c>
       <c r="E6">
-        <v>0.09906275016022725</v>
+        <v>0.03145324067604705</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002792842618014947</v>
+        <v>0.000929034842853236</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.897861059412037</v>
+        <v>8.500094697472008</v>
       </c>
       <c r="J6">
-        <v>0.01719758983382924</v>
+        <v>0.007917067884068985</v>
       </c>
       <c r="K6">
-        <v>2.204951900381587</v>
+        <v>1.097927123661975</v>
       </c>
       <c r="L6">
-        <v>0.7796995862890981</v>
+        <v>0.4256329864071233</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.098903139153322</v>
+        <v>0.7504923227373581</v>
       </c>
       <c r="C7">
-        <v>0.3032234981905333</v>
+        <v>0.3855459370822132</v>
       </c>
       <c r="D7">
-        <v>0.4261626252995825</v>
+        <v>0.1932101709837895</v>
       </c>
       <c r="E7">
-        <v>0.09887024107644216</v>
+        <v>0.03150516058590114</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002790915691351383</v>
+        <v>0.0009257330040087294</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.991610752394166</v>
+        <v>8.792254496576106</v>
       </c>
       <c r="J7">
-        <v>0.01724498188537815</v>
+        <v>0.008075766095062775</v>
       </c>
       <c r="K7">
-        <v>2.204743440033013</v>
+        <v>1.131237188864503</v>
       </c>
       <c r="L7">
-        <v>0.7810408613517552</v>
+        <v>0.4355722262753403</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.074978696238759</v>
+        <v>0.8338706887668081</v>
       </c>
       <c r="C8">
-        <v>0.3220526329590143</v>
+        <v>0.4551054924971538</v>
       </c>
       <c r="D8">
-        <v>0.4264323153158358</v>
+        <v>0.2090349669853708</v>
       </c>
       <c r="E8">
-        <v>0.0981023348023129</v>
+        <v>0.03184360364313576</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002782837348241779</v>
+        <v>0.0009114998614001729</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.40347379690516</v>
+        <v>10.10046891848955</v>
       </c>
       <c r="J8">
-        <v>0.01745373688406104</v>
+        <v>0.008786266594484005</v>
       </c>
       <c r="K8">
-        <v>2.207557292670685</v>
+        <v>1.286279193684805</v>
       </c>
       <c r="L8">
-        <v>0.7876614861671669</v>
+        <v>0.4810494623996249</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.0424866797959</v>
+        <v>1.03007588929421</v>
       </c>
       <c r="C9">
-        <v>0.3598492706915124</v>
+        <v>0.5982166441823438</v>
       </c>
       <c r="D9">
-        <v>0.4284947842383673</v>
+        <v>0.2435076804374035</v>
       </c>
       <c r="E9">
-        <v>0.09688883847623408</v>
+        <v>0.03294272084908556</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002768509982859081</v>
+        <v>0.0008845883479762608</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.205164282196591</v>
+        <v>12.76557893007836</v>
       </c>
       <c r="J9">
-        <v>0.01786200404452387</v>
+        <v>0.01023286034208581</v>
       </c>
       <c r="K9">
-        <v>2.22655410385866</v>
+        <v>1.62621591259952</v>
       </c>
       <c r="L9">
-        <v>0.8031744657650535</v>
+        <v>0.5773997413162846</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.027459335307384</v>
+        <v>1.200843082664221</v>
       </c>
       <c r="C10">
-        <v>0.3881748924264343</v>
+        <v>0.7093714675873741</v>
       </c>
       <c r="D10">
-        <v>0.4309471001124194</v>
+        <v>0.2715666631833216</v>
       </c>
       <c r="E10">
-        <v>0.09617477294077048</v>
+        <v>0.03406359442693052</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002758894959564992</v>
+        <v>0.0008651890833752951</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.791174977385168</v>
+        <v>14.81971977639685</v>
       </c>
       <c r="J10">
-        <v>0.01816155718547918</v>
+        <v>0.01134687759353881</v>
       </c>
       <c r="K10">
-        <v>2.248794226190398</v>
+        <v>1.905735355182173</v>
       </c>
       <c r="L10">
-        <v>0.8161243017707278</v>
+        <v>0.6540826509896647</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.022555518317745</v>
+        <v>1.286129326265609</v>
       </c>
       <c r="C11">
-        <v>0.4011873292006953</v>
+        <v>0.7617594059028647</v>
       </c>
       <c r="D11">
-        <v>0.4322667582967199</v>
+        <v>0.285095095898896</v>
       </c>
       <c r="E11">
-        <v>0.09588831865930558</v>
+        <v>0.034654465762749</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002754716177253932</v>
+        <v>0.0008563815592247882</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.057261890142001</v>
+        <v>15.78451241141414</v>
       </c>
       <c r="J11">
-        <v>0.01829780528586689</v>
+        <v>0.01186981586616476</v>
       </c>
       <c r="K11">
-        <v>2.260725845898833</v>
+        <v>2.041498217678651</v>
       </c>
       <c r="L11">
-        <v>0.8223550749440847</v>
+        <v>0.6906564833102351</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.020977410336229</v>
+        <v>1.319703227421797</v>
       </c>
       <c r="C12">
-        <v>0.4061334560033174</v>
+        <v>0.7819109694133317</v>
       </c>
       <c r="D12">
-        <v>0.4327958632580788</v>
+        <v>0.2903449233425874</v>
       </c>
       <c r="E12">
-        <v>0.09578535285806566</v>
+        <v>0.03489115551577271</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002753161647050929</v>
+        <v>0.0008530425706190059</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.157962123151037</v>
+        <v>16.1551611105848</v>
       </c>
       <c r="J12">
-        <v>0.01834940038922994</v>
+        <v>0.01207066633019416</v>
       </c>
       <c r="K12">
-        <v>2.265506154814375</v>
+        <v>2.094362021291033</v>
       </c>
       <c r="L12">
-        <v>0.8247635415782071</v>
+        <v>0.7047899933675126</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.021304865142383</v>
+        <v>1.312412360380335</v>
       </c>
       <c r="C13">
-        <v>0.405067386365431</v>
+        <v>0.7775561232556925</v>
       </c>
       <c r="D13">
-        <v>0.4326806038564115</v>
+        <v>0.2892083333489097</v>
       </c>
       <c r="E13">
-        <v>0.0958072835682735</v>
+        <v>0.03483958166235368</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002753495205632103</v>
+        <v>0.0008537619601494138</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.136277087986684</v>
+        <v>16.07508282864319</v>
       </c>
       <c r="J13">
-        <v>0.01833828835915519</v>
+        <v>0.01202727505882528</v>
       </c>
       <c r="K13">
-        <v>2.264464955741488</v>
+        <v>2.082908376272627</v>
       </c>
       <c r="L13">
-        <v>0.8242426532167855</v>
+        <v>0.701732745187897</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.02242009169197</v>
+        <v>1.288864686789793</v>
       </c>
       <c r="C14">
-        <v>0.401593875285414</v>
+        <v>0.763410682331056</v>
       </c>
       <c r="D14">
-        <v>0.4323096990860194</v>
+        <v>0.2855243514156314</v>
       </c>
       <c r="E14">
-        <v>0.09587973726627119</v>
+        <v>0.03467367084209272</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002754587727529793</v>
+        <v>0.0008561069735973809</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.065547727525768</v>
+        <v>15.81489370173085</v>
       </c>
       <c r="J14">
-        <v>0.01830205000586282</v>
+        <v>0.01188628016661042</v>
       </c>
       <c r="K14">
-        <v>2.261113865946612</v>
+        <v>2.045816857585692</v>
       </c>
       <c r="L14">
-        <v>0.8225522379116654</v>
+        <v>0.6918133104334316</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.0231395468345</v>
+        <v>1.274613505261897</v>
       </c>
       <c r="C15">
-        <v>0.3994686819177389</v>
+        <v>0.7547886696229398</v>
       </c>
       <c r="D15">
-        <v>0.4320863362218432</v>
+        <v>0.2832848858649868</v>
       </c>
       <c r="E15">
-        <v>0.09592483427756804</v>
+        <v>0.03457377294269293</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0027552605544882</v>
+        <v>0.0008575426678145528</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.022216284344438</v>
+        <v>15.65624138752372</v>
       </c>
       <c r="J15">
-        <v>0.01827985319954806</v>
+        <v>0.01180030092253936</v>
       </c>
       <c r="K15">
-        <v>2.25909538975651</v>
+        <v>2.023293539229627</v>
       </c>
       <c r="L15">
-        <v>0.8215231963509666</v>
+        <v>0.6857756527831782</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.02781877778213</v>
+        <v>1.19543747359873</v>
       </c>
       <c r="C16">
-        <v>0.3873270830254967</v>
+        <v>0.7059886686652135</v>
       </c>
       <c r="D16">
-        <v>0.4308649667206339</v>
+        <v>0.2706993178701538</v>
       </c>
       <c r="E16">
-        <v>0.09619426475720694</v>
+        <v>0.03402671497937071</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002759171964417904</v>
+        <v>0.000865764511876129</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.773776489956305</v>
+        <v>14.75735585079198</v>
       </c>
       <c r="J16">
-        <v>0.01815265296928992</v>
+        <v>0.01131306857011261</v>
       </c>
       <c r="K16">
-        <v>2.248051075517338</v>
+        <v>1.897053742282395</v>
       </c>
       <c r="L16">
-        <v>0.8157239561884637</v>
+        <v>0.6517298106441984</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.031184925371008</v>
+        <v>1.148934448467941</v>
       </c>
       <c r="C17">
-        <v>0.3799113655887822</v>
+        <v>0.6765522850101888</v>
       </c>
       <c r="D17">
-        <v>0.4301679890646994</v>
+        <v>0.2631854733826486</v>
       </c>
       <c r="E17">
-        <v>0.09636937352175146</v>
+        <v>0.03371270958019146</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002761621341661382</v>
+        <v>0.0008708086345961696</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.621247476256656</v>
+        <v>14.21431399168804</v>
       </c>
       <c r="J17">
-        <v>0.01807461727780435</v>
+        <v>0.01101863874993114</v>
       </c>
       <c r="K17">
-        <v>2.241741278069355</v>
+        <v>1.82195656847108</v>
       </c>
       <c r="L17">
-        <v>0.8122534462489597</v>
+        <v>0.6313036803312002</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.033302849087079</v>
+        <v>1.1228900551408</v>
       </c>
       <c r="C18">
-        <v>0.3756579711050847</v>
+        <v>0.6597893367891743</v>
       </c>
       <c r="D18">
-        <v>0.4297863135200402</v>
+        <v>0.258934477728701</v>
       </c>
       <c r="E18">
-        <v>0.0964737043448487</v>
+        <v>0.03353963528026505</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002763048536617004</v>
+        <v>0.0008737119372078375</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.533469896174296</v>
+        <v>13.90476344967132</v>
       </c>
       <c r="J18">
-        <v>0.01802973108609152</v>
+        <v>0.01085077779097965</v>
       </c>
       <c r="K18">
-        <v>2.238282765648592</v>
+        <v>1.77955802863363</v>
       </c>
       <c r="L18">
-        <v>0.8102892780029123</v>
+        <v>0.6197114249936675</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.034051136510271</v>
+        <v>1.11418748498059</v>
       </c>
       <c r="C19">
-        <v>0.3742198835478519</v>
+        <v>0.6541411299558604</v>
       </c>
       <c r="D19">
-        <v>0.4296603827536956</v>
+        <v>0.2575068444087663</v>
       </c>
       <c r="E19">
-        <v>0.09650964981133292</v>
+        <v>0.03348229309426465</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002763534922024036</v>
+        <v>0.000874695473810367</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.503741563776828</v>
+        <v>13.80040844886332</v>
       </c>
       <c r="J19">
-        <v>0.0180145329134298</v>
+        <v>0.01079418445902114</v>
       </c>
       <c r="K19">
-        <v>2.2371410592431</v>
+        <v>1.765333234198721</v>
       </c>
       <c r="L19">
-        <v>0.8096297323362762</v>
+        <v>0.6158121986577783</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.030807769910012</v>
+        <v>1.153810790501439</v>
       </c>
       <c r="C20">
-        <v>0.3806995442076868</v>
+        <v>0.6796680977562062</v>
       </c>
       <c r="D20">
-        <v>0.430240195398838</v>
+        <v>0.2639778962636825</v>
       </c>
       <c r="E20">
-        <v>0.09635035905115252</v>
+        <v>0.03374534761983128</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002761358700515341</v>
+        <v>0.0008702715083438805</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.637489237123702</v>
+        <v>14.27182636874244</v>
       </c>
       <c r="J20">
-        <v>0.01808292450309423</v>
+        <v>0.01104982401439436</v>
       </c>
       <c r="K20">
-        <v>2.24239529015469</v>
+        <v>1.829867028310673</v>
       </c>
       <c r="L20">
-        <v>0.8126195774318319</v>
+        <v>0.6334616248694971</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.022084946139472</v>
+        <v>1.295744894315362</v>
       </c>
       <c r="C21">
-        <v>0.4026136221453669</v>
+        <v>0.7675565849729082</v>
       </c>
       <c r="D21">
-        <v>0.4324178451995522</v>
+        <v>0.2866028323281853</v>
       </c>
       <c r="E21">
-        <v>0.09585830644883941</v>
+        <v>0.03472204028287074</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002754266071919606</v>
+        <v>0.0008554183439515306</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.086324235616416</v>
+        <v>15.89116539298595</v>
       </c>
       <c r="J21">
-        <v>0.01831269403376901</v>
+        <v>0.0119276127022534</v>
       </c>
       <c r="K21">
-        <v>2.262091040594981</v>
+        <v>2.056670186030686</v>
       </c>
       <c r="L21">
-        <v>0.8230474226339055</v>
+        <v>0.6947188282941283</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.018009990477907</v>
+        <v>1.396066231277217</v>
       </c>
       <c r="C22">
-        <v>0.4170443147633875</v>
+        <v>0.8268537885602996</v>
       </c>
       <c r="D22">
-        <v>0.4340123260253819</v>
+        <v>0.3021393058177182</v>
       </c>
       <c r="E22">
-        <v>0.09556882317293258</v>
+        <v>0.03543655605798435</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002749793075084384</v>
+        <v>0.0008456852621668225</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.379312290494397</v>
+        <v>16.9809593373684</v>
       </c>
       <c r="J22">
-        <v>0.01846286878374137</v>
+        <v>0.01251806223649865</v>
       </c>
       <c r="K22">
-        <v>2.276491419780001</v>
+        <v>2.213499443365606</v>
       </c>
       <c r="L22">
-        <v>0.8301483499723048</v>
+        <v>0.736432236723374</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.020035754741656</v>
+        <v>1.341761226207666</v>
       </c>
       <c r="C23">
-        <v>0.4093323328936833</v>
+        <v>0.7950165775301343</v>
       </c>
       <c r="D23">
-        <v>0.4331456398647049</v>
+        <v>0.2937721962564268</v>
       </c>
       <c r="E23">
-        <v>0.09572039190106807</v>
+        <v>0.03504774650172493</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002752165592273164</v>
+        <v>0.0008508846927594613</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.22296797773447</v>
+        <v>16.39608472595006</v>
       </c>
       <c r="J23">
-        <v>0.01838271577487482</v>
+        <v>0.01220120587934836</v>
       </c>
       <c r="K23">
-        <v>2.268665459045735</v>
+        <v>2.128928257707571</v>
       </c>
       <c r="L23">
-        <v>0.8263322585784323</v>
+        <v>0.7140001290305236</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.030977712961288</v>
+        <v>1.151604058030898</v>
       </c>
       <c r="C24">
-        <v>0.3803431775309889</v>
+        <v>0.678258942888931</v>
       </c>
       <c r="D24">
-        <v>0.4302074916547554</v>
+        <v>0.2636194287851623</v>
       </c>
       <c r="E24">
-        <v>0.09635894409727719</v>
+        <v>0.03373056884688985</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002761477381173293</v>
+        <v>0.0008705143317519306</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.630146607562295</v>
+        <v>14.24581683313127</v>
       </c>
       <c r="J24">
-        <v>0.01807916887678829</v>
+        <v>0.01103572079949977</v>
       </c>
       <c r="K24">
-        <v>2.242099084748531</v>
+        <v>1.826288308665141</v>
       </c>
       <c r="L24">
-        <v>0.8124539527453862</v>
+        <v>0.6324855507965879</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.049727283653027</v>
+        <v>0.972866329247239</v>
       </c>
       <c r="C25">
-        <v>0.3495283518093402</v>
+        <v>0.5586007589949702</v>
       </c>
       <c r="D25">
-        <v>0.4277724446852886</v>
+        <v>0.2337533794748907</v>
       </c>
       <c r="E25">
-        <v>0.09718589989739534</v>
+        <v>0.03259422733043849</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002772225029016588</v>
+        <v>0.0008917841399544233</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.988858500744101</v>
+        <v>12.0305669247125</v>
       </c>
       <c r="J25">
-        <v>0.01775164706383414</v>
+        <v>0.009834036019421788</v>
       </c>
       <c r="K25">
-        <v>2.219965269655688</v>
+        <v>1.529665802302361</v>
       </c>
       <c r="L25">
-        <v>0.7987059254557067</v>
+        <v>0.5504222588485987</v>
       </c>
       <c r="M25">
         <v>0</v>
